--- a/frontend/public/templates/실적_데이터_인풋.xlsx
+++ b/frontend/public/templates/실적_데이터_인풋.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdhg\Desktop\greensteel-main\greensteel\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA537D-B7F8-4C72-B6C8-6F5C4164F260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86DEBE-8A63-4286-8811-149A2D422D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14475" windowHeight="10605" xr2:uid="{C86D2C0A-CFD6-47F2-8418-B1AF65FE3FBE}"/>
+    <workbookView xWindow="7215" yWindow="1860" windowWidth="18210" windowHeight="11295" xr2:uid="{C86D2C0A-CFD6-47F2-8418-B1AF65FE3FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="그리드(기준정보)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>로트번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +176,14 @@
   </si>
   <si>
     <t>포장재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문처명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,573 +592,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A440960-5FB1-416D-A246-42E4E4C25BAD}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
         <v>45870</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>45873</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
         <v>45871</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>45872</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
         <v>45871</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>45872</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
         <v>45871</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>45872</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="J5" s="4"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
         <v>45871</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>45872</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
         <v>45872</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>45873</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>45872</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>45873</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
         <v>45873</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>45875</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
         <v>45875</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>45878</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
         <v>45875</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>45878</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>45875</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>45878</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
         <v>45875</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>45878</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>45872</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>45875</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>45872</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>45875</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
         <v>45877</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>45880</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>45877</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>45880</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>45881</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>45884</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
         <v>45881</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>45884</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>45884</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>45887</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>45884</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>45887</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="E22" s="2">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>45884</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>45887</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
